--- a/result2.xlsx
+++ b/result2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="三无人机投放策略" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>飞行方向(°)</t>
+          <t>飞行方向角(rad)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>飞行方向角(°)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>飞行速度(m/s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>投放延迟(s)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>起爆延迟(s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>投放点X(m)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>投放点Y(m)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>投放点Z(m)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>起爆点X(m)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>起爆点Y(m)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>起爆点Z(m)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>起爆时刻(s)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>烟幕失效时刻(s)</t>
         </is>
       </c>
     </row>
@@ -467,16 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>323.6338777571161</v>
+        <v>0.821618</v>
       </c>
       <c r="C2" t="n">
-        <v>131.3267827208438</v>
+        <v>47.08</v>
       </c>
       <c r="D2" t="n">
-        <v>39.37765454273192</v>
+        <v>139.9985</v>
       </c>
       <c r="E2" t="n">
-        <v>4.934623615886119</v>
+        <v>45.2985</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3577</v>
+      </c>
+      <c r="G2" t="n">
+        <v>22118.95</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4643.72</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22153.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4680.39</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1799.37</v>
+      </c>
+      <c r="M2" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65.66</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +558,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>213.3683548062178</v>
+        <v>1.541399</v>
       </c>
       <c r="C3" t="n">
-        <v>129.2973082769187</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>66.85230381395039</v>
+        <v>139.9917</v>
       </c>
       <c r="E3" t="n">
-        <v>20.82645651712101</v>
+        <v>22.9261</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.6021</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12094.34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4608.07</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12100.93</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4832.26</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1387.41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24.53</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44.53</v>
       </c>
     </row>
     <row r="4">
@@ -505,17 +604,68 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344.5767453976021</v>
+        <v>6.2824</v>
       </c>
       <c r="C4" t="n">
-        <v>78.21848814158605</v>
+        <v>359.95</v>
       </c>
       <c r="D4" t="n">
-        <v>38.57379989319263</v>
+        <v>139.991</v>
       </c>
       <c r="E4" t="n">
-        <v>5.131277743790913</v>
-      </c>
+        <v>6.0782</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6850.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-3000.67</v>
+      </c>
+      <c r="I4" t="n">
+        <v>700</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6851.14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-3000.67</v>
+      </c>
+      <c r="L4" t="n">
+        <v>700</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>总遮蔽时长</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.3000 s</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
